--- a/biology/Médecine/Les_Brutes_en_blanc/Les_Brutes_en_blanc.xlsx
+++ b/biology/Médecine/Les_Brutes_en_blanc/Les_Brutes_en_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Brutes en blanc est un essai de Martin Winckler, publié par Flammarion en 2016 et portant sur la maltraitance médicale de la part de professionnels de santé en France[1],[2],[3],[4].
+Les Brutes en blanc est un essai de Martin Winckler, publié par Flammarion en 2016 et portant sur la maltraitance médicale de la part de professionnels de santé en France.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'auteur y dénonce le comportement problématique volontaire ou non de la part de certains médecins envers leurs patients : relation d'autorité, paternalisme, poursuite de pratiques médicales parfois injustifiées[2]... Il s'agit selon lui d'une attitude répandue en France, qui a pour principale origine la formation des médecins[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auteur y dénonce le comportement problématique volontaire ou non de la part de certains médecins envers leurs patients : relation d'autorité, paternalisme, poursuite de pratiques médicales parfois injustifiées... Il s'agit selon lui d'une attitude répandue en France, qui a pour principale origine la formation des médecins.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Réception et critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre octobre 2016 et mai 2017, l'ouvrage est vendu à hauteur de 30 000 exemplaires[6]. Il est accueilli de manière plutôt froide par une partie des médecins en France[5]. Un médecin généraliste dénonce par exemple des « amalgames » dangereux que le livre véhicule, considérant que les médecins maltraitants sont des « cas isolés » et « marginaux », et que supposer que tous les médecins peuvent être maltraitants serait de nature à décourager les professionnels de santé[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre octobre 2016 et mai 2017, l'ouvrage est vendu à hauteur de 30 000 exemplaires. Il est accueilli de manière plutôt froide par une partie des médecins en France. Un médecin généraliste dénonce par exemple des « amalgames » dangereux que le livre véhicule, considérant que les médecins maltraitants sont des « cas isolés » et « marginaux », et que supposer que tous les médecins peuvent être maltraitants serait de nature à décourager les professionnels de santé.
 </t>
         </is>
       </c>
